--- a/doc/OA系统数据库设计.xlsx
+++ b/doc/OA系统数据库设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="190">
   <si>
     <t>系统用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,6 +762,14 @@
   </si>
   <si>
     <t>t_image_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2366,85 +2374,83 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>8</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="19">
+      <c r="C62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="4">
         <v>32</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="12" t="s">
+      <c r="F62" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="17">
+        <v>9</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="19">
+        <v>32</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A65" s="24"/>
+      <c r="B65" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="15" t="s">
+      <c r="D65" s="25"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A66" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E66" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F66" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="16">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" s="4">
-        <v>20</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>34</v>
@@ -2453,100 +2459,100 @@
         <v>20</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="16">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="4">
+        <v>20</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="17">
+      <c r="F68" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="17">
         <v>3</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B69" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D69" s="19">
         <v>20</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="26"/>
-      <c r="B70" s="22" t="s">
+      <c r="F69" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A71" s="26"/>
+      <c r="B71" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="15" t="s">
+      <c r="D71" s="27"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A72" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F72" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="16">
-        <v>1</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="4">
-        <v>20</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
-        <v>2</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>62</v>
@@ -2554,10 +2560,10 @@
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>36</v>
@@ -2566,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="F74" s="29" t="s">
         <v>62</v>
@@ -2574,10 +2580,10 @@
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>36</v>
@@ -2585,8 +2591,8 @@
       <c r="D75" s="4">
         <v>32</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>89</v>
+      <c r="E75" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>62</v>
@@ -2594,59 +2600,59 @@
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D76" s="4">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="6">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="4">
+        <v>32</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>62</v>
@@ -2654,17 +2660,19 @@
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="16">
-        <v>8</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D79" s="6">
+        <v>64</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>62</v>
@@ -2672,19 +2680,17 @@
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="16">
-        <v>9</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>62</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" s="6">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D81" s="4">
+        <v>32</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>62</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="16">
+        <v>10</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="6">
         <v>11</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="6">
-        <v>300</v>
-      </c>
       <c r="E82" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>62</v>
@@ -2732,37 +2738,37 @@
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="16">
-        <v>12</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="6">
+        <v>300</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="4">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>65</v>
@@ -2770,79 +2776,79 @@
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="16">
-        <v>14</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D85" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="16">
-        <v>15</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D86" s="4">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D87" s="4">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D88" s="4">
         <v>32</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F88" s="29" t="s">
         <v>62</v>
@@ -2850,17 +2856,19 @@
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="D89" s="4">
+        <v>32</v>
+      </c>
       <c r="E89" s="3" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F89" s="29" t="s">
         <v>62</v>
@@ -2868,19 +2876,17 @@
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="4">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D90" s="4"/>
       <c r="E90" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F90" s="29" t="s">
         <v>62</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="16">
+        <v>19</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4">
         <v>20</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="4">
-        <v>32</v>
-      </c>
       <c r="E91" s="3" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F91" s="29" t="s">
         <v>62</v>
@@ -2908,15 +2914,17 @@
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D92" s="4">
+        <v>32</v>
+      </c>
       <c r="E92" s="3" t="s">
         <v>14</v>
       </c>
@@ -2924,94 +2932,92 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="16">
+        <v>21</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="16">
         <v>22</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B94" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C94" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D94" s="19">
         <v>20</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E94" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F93" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22" t="s">
+      <c r="F94" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="21"/>
+      <c r="B96" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="15" t="s">
+      <c r="D96" s="27"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A97" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E97" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F97" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="16">
-        <v>1</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="4">
-        <v>20</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="16">
-        <v>2</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D98" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F98" s="29" t="s">
         <v>62</v>
@@ -3019,37 +3025,37 @@
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="16">
-        <v>3</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D99" s="4">
+        <v>32</v>
+      </c>
       <c r="E99" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>65</v>
+        <v>109</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D100" s="4"/>
       <c r="E100" s="3" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>65</v>
@@ -3057,10 +3063,10 @@
     </row>
     <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="16">
-        <v>5</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>36</v>
@@ -3069,138 +3075,138 @@
         <v>32</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="16">
-        <v>6</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="4">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="16">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="4">
+        <v>300</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="16">
         <v>7</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="3" t="s">
+      <c r="D104" s="4"/>
+      <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="16">
+      <c r="F104" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="16">
         <v>8</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B105" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C105" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D105" s="19">
         <v>20</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E105" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F104" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22" t="s">
+      <c r="F105" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="21"/>
+      <c r="B107" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="15" t="s">
+      <c r="D107" s="27"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="14"/>
+    </row>
+    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D108" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E108" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F108" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="16">
-        <v>1</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108" s="4">
-        <v>20</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="16">
-        <v>2</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D109" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>62</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="16">
-        <v>3</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="6">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="4">
+        <v>32</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F110" s="29" t="s">
         <v>62</v>
@@ -3228,17 +3234,19 @@
     </row>
     <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="16">
-        <v>4</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="D111" s="6">
+        <v>64</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>62</v>
@@ -3246,19 +3254,17 @@
     </row>
     <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="16">
-        <v>5</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="4">
-        <v>32</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>150</v>
+        <v>4</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>62</v>
@@ -3266,10 +3272,10 @@
     </row>
     <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>36</v>
@@ -3278,7 +3284,7 @@
         <v>32</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>62</v>
@@ -3286,19 +3292,19 @@
     </row>
     <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="6">
-        <v>300</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="4">
+        <v>32</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>62</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="16">
-        <v>8</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="4">
-        <v>32</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>127</v>
+        <v>7</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="6">
+        <v>300</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F115" s="29" t="s">
         <v>62</v>
@@ -3326,55 +3332,57 @@
     </row>
     <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="16">
-        <v>9</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D116" s="4">
+        <v>32</v>
+      </c>
       <c r="E116" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D117" s="4"/>
       <c r="E117" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="16">
+        <v>10</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C118" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D118" s="4">
+        <v>32</v>
+      </c>
       <c r="E118" s="3" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F118" s="29" t="s">
         <v>62</v>
@@ -3382,19 +3390,17 @@
     </row>
     <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="4">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D119" s="4"/>
       <c r="E119" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F119" s="29" t="s">
         <v>62</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D120" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F120" s="29" t="s">
         <v>62</v>
@@ -3422,108 +3428,108 @@
     </row>
     <row r="121" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="16">
+        <v>13</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" s="4">
+        <v>32</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="16">
         <v>14</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3" t="s">
+      <c r="D122" s="4"/>
+      <c r="E122" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="16">
+      <c r="F122" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="16">
         <v>15</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B123" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C123" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D123" s="19">
         <v>20</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E123" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="37"/>
-    </row>
-    <row r="123" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22" t="s">
+      <c r="F123" s="37"/>
+    </row>
+    <row r="124" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="21"/>
+      <c r="B125" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C125" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="15" t="s">
+      <c r="D125" s="27"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="14"/>
+    </row>
+    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A126" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C126" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D126" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E126" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F126" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="16">
-        <v>1</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="4">
-        <v>20</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="16">
-        <v>2</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="F127" s="29" t="s">
         <v>62</v>
@@ -3531,10 +3537,10 @@
     </row>
     <row r="128" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>36</v>
@@ -3543,7 +3549,7 @@
         <v>32</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F128" s="29" t="s">
         <v>62</v>
@@ -3551,149 +3557,149 @@
     </row>
     <row r="129" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="16">
-        <v>4</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D129" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D129" s="4">
+        <v>32</v>
+      </c>
       <c r="E129" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D130" s="4"/>
       <c r="E130" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F130" s="29" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="16">
-        <v>6</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="4">
+        <v>32</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="16">
+        <v>6</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="33"/>
+    </row>
+    <row r="133" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A133" s="16">
         <v>7</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3" t="s">
+      <c r="D133" s="4"/>
+      <c r="E133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="16">
+      <c r="F133" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="16">
         <v>8</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B134" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C134" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D134" s="19">
         <v>20</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E134" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F133" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A135" s="21"/>
-      <c r="B135" s="22" t="s">
+      <c r="F134" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A136" s="21"/>
+      <c r="B136" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C136" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="14"/>
-    </row>
-    <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="15" t="s">
+      <c r="D136" s="27"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="14"/>
+    </row>
+    <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C137" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D137" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F137" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="16">
-        <v>1</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137" s="4">
-        <v>20</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>34</v>
@@ -3702,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="E138" s="38" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="F138" s="39" t="s">
         <v>62</v>
@@ -3710,19 +3716,19 @@
     </row>
     <row r="139" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D139" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E139" s="38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F139" s="39" t="s">
         <v>62</v>
@@ -3730,10 +3736,10 @@
     </row>
     <row r="140" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>36</v>
@@ -3742,7 +3748,7 @@
         <v>32</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F140" s="39" t="s">
         <v>62</v>
@@ -3750,93 +3756,93 @@
     </row>
     <row r="141" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D141" s="4">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E141" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141" s="39"/>
+        <v>159</v>
+      </c>
+      <c r="F141" s="39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="4">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="E142" s="38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F142" s="39"/>
     </row>
     <row r="143" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B143" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D143" s="4">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F143" s="39"/>
     </row>
     <row r="144" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144" s="38" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D144" s="4">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="E144" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F144" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F144" s="39"/>
     </row>
     <row r="145" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D145" s="4">
         <v>32</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F145" s="39" t="s">
         <v>62</v>
@@ -3844,17 +3850,19 @@
     </row>
     <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D146" s="4">
+        <v>32</v>
+      </c>
       <c r="E146" s="38" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F146" s="39" t="s">
         <v>62</v>
@@ -3862,100 +3870,98 @@
     </row>
     <row r="147" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="16">
+        <v>10</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A148" s="16">
         <v>11</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B148" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D148" s="4">
         <v>20</v>
       </c>
-      <c r="E147" s="38" t="s">
+      <c r="E148" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F147" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="40"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="37"/>
-    </row>
-    <row r="149" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A150" s="21"/>
-      <c r="B150" s="22" t="s">
+      <c r="F148" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="37"/>
+    </row>
+    <row r="150" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A151" s="21"/>
+      <c r="B151" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="14"/>
-    </row>
-    <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A151" s="15" t="s">
+      <c r="D151" s="27"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="14"/>
+    </row>
+    <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A152" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B152" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C152" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D152" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E152" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F151" s="28" t="s">
+      <c r="F152" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A152" s="16">
-        <v>1</v>
-      </c>
-      <c r="B152" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152" s="38">
-        <v>20</v>
-      </c>
-      <c r="E152" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A153" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D153" s="38">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E153" s="38" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="F153" s="39" t="s">
         <v>62</v>
@@ -3963,19 +3969,19 @@
     </row>
     <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A154" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="D154" s="38">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F154" s="39" t="s">
         <v>62</v>
@@ -3983,19 +3989,19 @@
     </row>
     <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="D155" s="38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F155" s="39" t="s">
         <v>62</v>
@@ -4003,19 +4009,19 @@
     </row>
     <row r="156" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D156" s="38">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F156" s="39" t="s">
         <v>62</v>
@@ -4023,10 +4029,10 @@
     </row>
     <row r="157" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>36</v>
@@ -4035,7 +4041,7 @@
         <v>255</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F157" s="39" t="s">
         <v>62</v>
@@ -4043,10 +4049,10 @@
     </row>
     <row r="158" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C158" s="38" t="s">
         <v>36</v>
@@ -4055,7 +4061,7 @@
         <v>255</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>62</v>
@@ -4063,31 +4069,51 @@
     </row>
     <row r="159" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="16">
+        <v>7</v>
+      </c>
+      <c r="B159" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="38">
+        <v>255</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A160" s="16">
         <v>8</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B160" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="C159" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="38">
+      <c r="C160" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="38">
         <v>32</v>
       </c>
-      <c r="E159" s="38" t="s">
+      <c r="E160" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F159" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="34"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="35"/>
-      <c r="F160" s="37"/>
+      <c r="F160" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="34"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/OA系统数据库设计.xlsx
+++ b/doc/OA系统数据库设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
   <si>
     <t>系统用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,6 +770,10 @@
   </si>
   <si>
     <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>

--- a/doc/OA系统数据库设计.xlsx
+++ b/doc/OA系统数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 角色类型 000 超级系统管理员，001 省级 002, 市级，003 县级 999 无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,6 +770,22 @@
   </si>
   <si>
     <t>p_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>admin 超级系统管理员 operation操作员</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +845,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1310,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1406,10 +1425,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="6">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -1948,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -2296,7 +2315,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="29" t="s">
         <v>62</v>
@@ -2327,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>36</v>
@@ -2336,7 +2355,7 @@
         <v>255</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" s="29"/>
     </row>
@@ -2345,16 +2364,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D60" s="4">
         <v>11</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60" s="29"/>
     </row>
@@ -2383,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>36</v>
@@ -2403,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>36</v>
@@ -2412,7 +2431,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F63" s="31"/>
     </row>
@@ -2843,7 +2862,7 @@
         <v>16</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>133</v>
@@ -2852,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" s="29" t="s">
         <v>62</v>
@@ -2866,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D89" s="4">
         <v>32</v>
@@ -3288,7 +3307,7 @@
         <v>32</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>62</v>
@@ -3669,10 +3688,10 @@
     <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="21"/>
       <c r="B136" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>152</v>
       </c>
       <c r="D136" s="27"/>
       <c r="E136" s="30"/>
@@ -3723,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>34</v>
@@ -3732,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="E139" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F139" s="39" t="s">
         <v>62</v>
@@ -3743,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>36</v>
@@ -3752,7 +3771,7 @@
         <v>32</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F140" s="39" t="s">
         <v>62</v>
@@ -3763,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>36</v>
@@ -3772,7 +3791,7 @@
         <v>32</v>
       </c>
       <c r="E141" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F141" s="39" t="s">
         <v>62</v>
@@ -3783,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>36</v>
@@ -3792,7 +3811,7 @@
         <v>255</v>
       </c>
       <c r="E142" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F142" s="39"/>
     </row>
@@ -3801,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>36</v>
@@ -3810,7 +3829,7 @@
         <v>32</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F143" s="39"/>
     </row>
@@ -3819,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>36</v>
@@ -3828,7 +3847,7 @@
         <v>255</v>
       </c>
       <c r="E144" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F144" s="39"/>
     </row>
@@ -3837,7 +3856,7 @@
         <v>8</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>36</v>
@@ -3846,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F145" s="39" t="s">
         <v>62</v>
@@ -3857,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>133</v>
@@ -3895,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>34</v>
@@ -3922,10 +3941,10 @@
     <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A151" s="21"/>
       <c r="B151" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="30"/>
@@ -3976,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C154" s="38" t="s">
         <v>36</v>
@@ -3985,7 +4004,7 @@
         <v>255</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F154" s="39" t="s">
         <v>62</v>
@@ -3996,16 +4015,16 @@
         <v>3</v>
       </c>
       <c r="B155" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="C155" s="38" t="s">
-        <v>174</v>
       </c>
       <c r="D155" s="38">
         <v>0</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F155" s="39" t="s">
         <v>62</v>
@@ -4016,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>36</v>
@@ -4025,7 +4044,7 @@
         <v>50</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F156" s="39" t="s">
         <v>62</v>
@@ -4036,7 +4055,7 @@
         <v>5</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>36</v>
@@ -4045,7 +4064,7 @@
         <v>255</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F157" s="39" t="s">
         <v>62</v>
@@ -4056,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C158" s="38" t="s">
         <v>36</v>
@@ -4065,7 +4084,7 @@
         <v>255</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>62</v>
@@ -4076,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>36</v>
@@ -4085,7 +4104,7 @@
         <v>255</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F159" s="39" t="s">
         <v>62</v>
@@ -4096,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="B160" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C160" s="38" t="s">
         <v>36</v>
@@ -4105,7 +4124,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F160" s="39" t="s">
         <v>62</v>

--- a/doc/OA系统数据库设计.xlsx
+++ b/doc/OA系统数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="192">
   <si>
     <t>系统用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +787,9 @@
       <t>admin 超级系统管理员 operation操作员</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_code</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2508,94 +2511,94 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="17">
+    <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="16">
         <v>3</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="4">
         <v>20</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="26"/>
-      <c r="B71" s="22" t="s">
+      <c r="F69" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="17">
+        <v>4</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="19">
+        <v>32</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A72" s="26"/>
+      <c r="B72" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="15" t="s">
+      <c r="D72" s="27"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A73" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F73" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="16">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="4">
-        <v>20</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="16">
-        <v>2</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D74" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F74" s="29" t="s">
         <v>62</v>
@@ -2603,10 +2606,10 @@
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>36</v>
@@ -2615,7 +2618,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>62</v>
@@ -2623,10 +2626,10 @@
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>36</v>
@@ -2634,8 +2637,8 @@
       <c r="D76" s="4">
         <v>32</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>89</v>
+      <c r="E76" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>62</v>
@@ -2643,59 +2646,59 @@
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="4">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="4">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="6">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="4">
+        <v>32</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>62</v>
@@ -2703,17 +2706,19 @@
     </row>
     <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="16">
-        <v>8</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D80" s="6">
+        <v>64</v>
+      </c>
       <c r="E80" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>62</v>
@@ -2721,19 +2726,17 @@
     </row>
     <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="16">
-        <v>9</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>62</v>
@@ -2741,19 +2744,19 @@
     </row>
     <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="6">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D82" s="4">
+        <v>32</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>62</v>
@@ -2761,19 +2764,19 @@
     </row>
     <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="16">
+        <v>10</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="6">
         <v>11</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="6">
-        <v>300</v>
-      </c>
       <c r="E83" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>62</v>
@@ -2781,37 +2784,37 @@
     </row>
     <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="16">
-        <v>12</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="6">
+        <v>300</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="4">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D85" s="4"/>
       <c r="E85" s="3" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>65</v>
@@ -2819,79 +2822,79 @@
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="16">
-        <v>14</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D86" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="16">
-        <v>15</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="4">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D88" s="4">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D89" s="4">
         <v>32</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="F89" s="29" t="s">
         <v>62</v>
@@ -2899,17 +2902,19 @@
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="D90" s="4">
+        <v>32</v>
+      </c>
       <c r="E90" s="3" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F90" s="29" t="s">
         <v>62</v>
@@ -2917,19 +2922,17 @@
     </row>
     <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="4">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D91" s="4"/>
       <c r="E91" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F91" s="29" t="s">
         <v>62</v>
@@ -2937,19 +2940,19 @@
     </row>
     <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="16">
+        <v>19</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="4">
         <v>20</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="4">
-        <v>32</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F92" s="29" t="s">
         <v>62</v>
@@ -2957,15 +2960,17 @@
     </row>
     <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D93" s="4">
+        <v>32</v>
+      </c>
       <c r="E93" s="3" t="s">
         <v>14</v>
       </c>
@@ -2973,94 +2978,92 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="16">
+        <v>21</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="16">
         <v>22</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B95" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C95" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D95" s="19">
         <v>20</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E95" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22" t="s">
+      <c r="F95" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A97" s="21"/>
+      <c r="B97" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C97" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="15" t="s">
+      <c r="D97" s="27"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C98" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D98" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F98" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="16">
-        <v>1</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="4">
-        <v>20</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="16">
-        <v>2</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D99" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F99" s="29" t="s">
         <v>62</v>
@@ -3068,37 +3071,37 @@
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="16">
-        <v>3</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D100" s="4">
+        <v>32</v>
+      </c>
       <c r="E100" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>65</v>
+        <v>109</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="3" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F101" s="33" t="s">
         <v>65</v>
@@ -3106,10 +3109,10 @@
     </row>
     <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="16">
-        <v>5</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>36</v>
@@ -3118,138 +3121,138 @@
         <v>32</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="16">
-        <v>6</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="4">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="16">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="4">
+        <v>300</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="16">
         <v>7</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3" t="s">
+      <c r="D105" s="4"/>
+      <c r="E105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="16">
+      <c r="F105" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="16">
         <v>8</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B106" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C106" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D106" s="19">
         <v>20</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E106" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F105" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22" t="s">
+      <c r="F106" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="21"/>
+      <c r="B108" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C108" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D107" s="27"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="15" t="s">
+      <c r="D108" s="27"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="14"/>
+    </row>
+    <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A109" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C109" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D109" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F109" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="16">
-        <v>1</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D109" s="4">
-        <v>20</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="16">
-        <v>2</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D110" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="F110" s="29" t="s">
         <v>62</v>
@@ -3257,19 +3260,19 @@
     </row>
     <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="16">
-        <v>3</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="6">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="4">
+        <v>32</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>62</v>
@@ -3277,17 +3280,19 @@
     </row>
     <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="16">
-        <v>4</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="D112" s="6">
+        <v>64</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>62</v>
@@ -3295,19 +3300,17 @@
     </row>
     <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="16">
-        <v>5</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="4">
-        <v>32</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>62</v>
@@ -3315,10 +3318,10 @@
     </row>
     <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>36</v>
@@ -3327,7 +3330,7 @@
         <v>32</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>62</v>
@@ -3335,19 +3338,19 @@
     </row>
     <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="6">
-        <v>300</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="4">
+        <v>32</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F115" s="29" t="s">
         <v>62</v>
@@ -3355,19 +3358,19 @@
     </row>
     <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="16">
-        <v>8</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="4">
-        <v>32</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>127</v>
+        <v>7</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="6">
+        <v>300</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F116" s="29" t="s">
         <v>62</v>
@@ -3375,55 +3378,57 @@
     </row>
     <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="16">
-        <v>9</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D117" s="4">
+        <v>32</v>
+      </c>
       <c r="E117" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D118" s="4"/>
       <c r="E118" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="16">
+        <v>10</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C119" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D119" s="4">
+        <v>32</v>
+      </c>
       <c r="E119" s="3" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F119" s="29" t="s">
         <v>62</v>
@@ -3431,19 +3436,17 @@
     </row>
     <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120" s="4">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D120" s="4"/>
       <c r="E120" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F120" s="29" t="s">
         <v>62</v>
@@ -3451,19 +3454,19 @@
     </row>
     <row r="121" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D121" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F121" s="29" t="s">
         <v>62</v>
@@ -3471,108 +3474,108 @@
     </row>
     <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A122" s="16">
+        <v>13</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="4">
+        <v>32</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="16">
         <v>14</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3" t="s">
+      <c r="D123" s="4"/>
+      <c r="E123" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="16">
+      <c r="F123" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="16">
         <v>15</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B124" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C124" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D124" s="19">
         <v>20</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E124" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F123" s="37"/>
-    </row>
-    <row r="124" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22" t="s">
+      <c r="F124" s="37"/>
+    </row>
+    <row r="125" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A126" s="21"/>
+      <c r="B126" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C126" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="14"/>
-    </row>
-    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="15" t="s">
+      <c r="D126" s="27"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="14"/>
+    </row>
+    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A127" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C127" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D127" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F127" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="16">
-        <v>1</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="4">
-        <v>20</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="16">
-        <v>2</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D128" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="F128" s="29" t="s">
         <v>62</v>
@@ -3580,10 +3583,10 @@
     </row>
     <row r="129" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>36</v>
@@ -3592,7 +3595,7 @@
         <v>32</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F129" s="29" t="s">
         <v>62</v>
@@ -3600,149 +3603,149 @@
     </row>
     <row r="130" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="16">
-        <v>4</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D130" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D130" s="4">
+        <v>32</v>
+      </c>
       <c r="E130" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D131" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D131" s="4"/>
       <c r="E131" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F131" s="29" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="16">
-        <v>6</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="4">
+        <v>32</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="16">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="33"/>
+    </row>
+    <row r="134" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A134" s="16">
         <v>7</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3" t="s">
+      <c r="D134" s="4"/>
+      <c r="E134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F133" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="16">
+      <c r="F134" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="16">
         <v>8</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B135" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C135" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D135" s="19">
         <v>20</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E135" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F134" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22" t="s">
+      <c r="F135" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A137" s="21"/>
+      <c r="B137" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C137" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="14"/>
-    </row>
-    <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="15" t="s">
+      <c r="D137" s="27"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="14"/>
+    </row>
+    <row r="138" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A138" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B138" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C138" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D138" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E138" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F138" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="16">
-        <v>1</v>
-      </c>
-      <c r="B138" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D138" s="4">
-        <v>20</v>
-      </c>
-      <c r="E138" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>34</v>
@@ -3751,7 +3754,7 @@
         <v>20</v>
       </c>
       <c r="E139" s="38" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="F139" s="39" t="s">
         <v>62</v>
@@ -3759,19 +3762,19 @@
     </row>
     <row r="140" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D140" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F140" s="39" t="s">
         <v>62</v>
@@ -3779,10 +3782,10 @@
     </row>
     <row r="141" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>36</v>
@@ -3791,7 +3794,7 @@
         <v>32</v>
       </c>
       <c r="E141" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F141" s="39" t="s">
         <v>62</v>
@@ -3799,93 +3802,93 @@
     </row>
     <row r="142" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="4">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E142" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F142" s="39"/>
+        <v>158</v>
+      </c>
+      <c r="F142" s="39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B143" s="38" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D143" s="4">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F143" s="39"/>
     </row>
     <row r="144" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D144" s="4">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E144" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F144" s="39"/>
     </row>
     <row r="145" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D145" s="4">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F145" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F145" s="39"/>
     </row>
     <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D146" s="4">
         <v>32</v>
       </c>
       <c r="E146" s="38" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F146" s="39" t="s">
         <v>62</v>
@@ -3893,17 +3896,19 @@
     </row>
     <row r="147" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D147" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D147" s="4">
+        <v>32</v>
+      </c>
       <c r="E147" s="38" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F147" s="39" t="s">
         <v>62</v>
@@ -3911,100 +3916,98 @@
     </row>
     <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="16">
+        <v>10</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A149" s="16">
         <v>11</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B149" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D149" s="4">
         <v>20</v>
       </c>
-      <c r="E148" s="38" t="s">
+      <c r="E149" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F148" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="40"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="37"/>
-    </row>
-    <row r="150" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22" t="s">
+      <c r="F149" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="40"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="37"/>
+    </row>
+    <row r="151" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A152" s="21"/>
+      <c r="B152" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C152" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D151" s="27"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="14"/>
-    </row>
-    <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A152" s="15" t="s">
+      <c r="D152" s="27"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="14"/>
+    </row>
+    <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A153" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B153" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C153" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F152" s="28" t="s">
+      <c r="F153" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A153" s="16">
-        <v>1</v>
-      </c>
-      <c r="B153" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D153" s="38">
-        <v>20</v>
-      </c>
-      <c r="E153" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A154" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D154" s="38">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="F154" s="39" t="s">
         <v>62</v>
@@ -4012,19 +4015,19 @@
     </row>
     <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="D155" s="38">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F155" s="39" t="s">
         <v>62</v>
@@ -4032,19 +4035,19 @@
     </row>
     <row r="156" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D156" s="38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F156" s="39" t="s">
         <v>62</v>
@@ -4052,19 +4055,19 @@
     </row>
     <row r="157" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D157" s="38">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F157" s="39" t="s">
         <v>62</v>
@@ -4072,10 +4075,10 @@
     </row>
     <row r="158" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C158" s="38" t="s">
         <v>36</v>
@@ -4084,7 +4087,7 @@
         <v>255</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>62</v>
@@ -4092,10 +4095,10 @@
     </row>
     <row r="159" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>36</v>
@@ -4104,7 +4107,7 @@
         <v>255</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F159" s="39" t="s">
         <v>62</v>
@@ -4112,31 +4115,51 @@
     </row>
     <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="16">
+        <v>7</v>
+      </c>
+      <c r="B160" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="38">
+        <v>255</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F160" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A161" s="16">
         <v>8</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B161" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C160" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D160" s="38">
+      <c r="C161" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="38">
         <v>32</v>
       </c>
-      <c r="E160" s="38" t="s">
+      <c r="E161" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F160" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="34"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="37"/>
+      <c r="F161" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="34"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/OA系统数据库设计.xlsx
+++ b/doc/OA系统数据库设计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="194">
   <si>
     <t>系统用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,6 +790,13 @@
   </si>
   <si>
     <t>permission_code</t>
+  </si>
+  <si>
+    <t>舆情状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt_state</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3857,58 +3864,54 @@
       <c r="F144" s="39"/>
     </row>
     <row r="145" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="16">
-        <v>7</v>
-      </c>
+      <c r="A145" s="16"/>
       <c r="B145" s="38" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D145" s="4">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F145" s="39"/>
     </row>
     <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D146" s="4">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="E146" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F146" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F146" s="39"/>
     </row>
     <row r="147" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D147" s="4">
         <v>32</v>
       </c>
       <c r="E147" s="38" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F147" s="39" t="s">
         <v>62</v>
@@ -3916,17 +3919,19 @@
     </row>
     <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D148" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D148" s="4">
+        <v>32</v>
+      </c>
       <c r="E148" s="38" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F148" s="39" t="s">
         <v>62</v>
@@ -3934,100 +3939,98 @@
     </row>
     <row r="149" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A149" s="16">
+        <v>10</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A150" s="16">
         <v>11</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B150" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D150" s="4">
         <v>20</v>
       </c>
-      <c r="E149" s="38" t="s">
+      <c r="E150" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F149" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="40"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="41"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="37"/>
-    </row>
-    <row r="151" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22" t="s">
+      <c r="F150" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="40"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="37"/>
+    </row>
+    <row r="152" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A153" s="21"/>
+      <c r="B153" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C153" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D152" s="27"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="14"/>
-    </row>
-    <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A153" s="15" t="s">
+      <c r="D153" s="27"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="14"/>
+    </row>
+    <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A154" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C154" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D154" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E154" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F153" s="28" t="s">
+      <c r="F154" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A154" s="16">
-        <v>1</v>
-      </c>
-      <c r="B154" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D154" s="38">
-        <v>20</v>
-      </c>
-      <c r="E154" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D155" s="38">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="F155" s="39" t="s">
         <v>62</v>
@@ -4035,19 +4038,19 @@
     </row>
     <row r="156" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="D156" s="38">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F156" s="39" t="s">
         <v>62</v>
@@ -4055,19 +4058,19 @@
     </row>
     <row r="157" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D157" s="38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F157" s="39" t="s">
         <v>62</v>
@@ -4075,19 +4078,19 @@
     </row>
     <row r="158" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C158" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D158" s="38">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>62</v>
@@ -4095,10 +4098,10 @@
     </row>
     <row r="159" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>36</v>
@@ -4107,7 +4110,7 @@
         <v>255</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F159" s="39" t="s">
         <v>62</v>
@@ -4115,10 +4118,10 @@
     </row>
     <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B160" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C160" s="38" t="s">
         <v>36</v>
@@ -4127,7 +4130,7 @@
         <v>255</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F160" s="39" t="s">
         <v>62</v>
@@ -4135,31 +4138,51 @@
     </row>
     <row r="161" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A161" s="16">
+        <v>7</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="38">
+        <v>255</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A162" s="16">
         <v>8</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B162" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C161" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" s="38">
+      <c r="C162" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162" s="38">
         <v>32</v>
       </c>
-      <c r="E161" s="38" t="s">
+      <c r="E162" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F161" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="34"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="41"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="37"/>
+      <c r="F162" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="34"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="35"/>
+      <c r="F163" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/OA系统数据库设计.xlsx
+++ b/doc/OA系统数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="210">
   <si>
     <t>系统用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,6 +797,70 @@
   </si>
   <si>
     <t>adopt_state</t>
+  </si>
+  <si>
+    <t>t_report_article_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报文章附件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在服务器的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original_file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原名称 带后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffix_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -965,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1054,6 +1118,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1337,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3260,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="16">
+      <c r="A106" s="17">
         <v>8</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -3212,18 +3279,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="6"/>
+    </row>
     <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22" t="s">
-        <v>124</v>
+      <c r="A108" s="20"/>
+      <c r="B108" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="D108" s="13"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="42"/>
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="15" t="s">
@@ -3270,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>36</v>
@@ -3279,7 +3353,7 @@
         <v>32</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>62</v>
@@ -3289,17 +3363,17 @@
       <c r="A112" s="16">
         <v>3</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="6">
-        <v>64</v>
+      <c r="B112" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="4">
+        <v>300</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>62</v>
@@ -3309,15 +3383,17 @@
       <c r="A113" s="16">
         <v>4</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5" t="s">
-        <v>48</v>
+      <c r="B113" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="4">
+        <v>32</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>62</v>
@@ -3327,8 +3403,8 @@
       <c r="A114" s="16">
         <v>5</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>111</v>
+      <c r="B114" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>36</v>
@@ -3337,7 +3413,7 @@
         <v>32</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>62</v>
@@ -3347,8 +3423,8 @@
       <c r="A115" s="16">
         <v>6</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>112</v>
+      <c r="B115" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>36</v>
@@ -3357,7 +3433,7 @@
         <v>32</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="F115" s="29" t="s">
         <v>62</v>
@@ -3368,16 +3444,16 @@
         <v>7</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="6">
-        <v>300</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>115</v>
+        <v>204</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="4">
+        <v>32</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="F116" s="29" t="s">
         <v>62</v>
@@ -3387,8 +3463,8 @@
       <c r="A117" s="16">
         <v>8</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>122</v>
+      <c r="B117" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>36</v>
@@ -3397,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="F117" s="29" t="s">
         <v>62</v>
@@ -3408,181 +3484,185 @@
         <v>9</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D118" s="4">
+        <v>32</v>
+      </c>
       <c r="E118" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>65</v>
+        <v>209</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D119" s="4"/>
       <c r="E119" s="3" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F119" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="16">
-        <v>11</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" s="4" t="s">
+    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="17">
+        <v>8</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="19">
+        <v>20</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="21"/>
+      <c r="B122" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="27"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="14"/>
+    </row>
+    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A124" s="16">
+        <v>1</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="4">
+        <v>20</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="16">
+        <v>2</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="4">
+        <v>32</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A126" s="16">
+        <v>3</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="6">
+        <v>64</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A127" s="16">
+        <v>4</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="16">
-        <v>12</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D121" s="4">
-        <v>20</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="16">
-        <v>13</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" s="4">
-        <v>32</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="16">
-        <v>14</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="16">
-        <v>15</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124" s="19">
-        <v>20</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F124" s="37"/>
-    </row>
-    <row r="125" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="14"/>
-    </row>
-    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>61</v>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D128" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="F128" s="29" t="s">
         <v>62</v>
@@ -3590,10 +3670,10 @@
     </row>
     <row r="129" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="16">
-        <v>2</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>36</v>
@@ -3602,7 +3682,7 @@
         <v>32</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F129" s="29" t="s">
         <v>62</v>
@@ -3610,19 +3690,19 @@
     </row>
     <row r="130" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="16">
-        <v>3</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" s="4">
-        <v>32</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="6">
+        <v>300</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F130" s="29" t="s">
         <v>62</v>
@@ -3630,55 +3710,65 @@
     </row>
     <row r="131" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="16">
-        <v>4</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D131" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D131" s="4">
+        <v>32</v>
+      </c>
       <c r="E131" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F131" s="33" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="4">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D132" s="4"/>
       <c r="E132" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F132" s="29" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="F132" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="16">
-        <v>6</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" s="4">
+        <v>32</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>129</v>
@@ -3694,163 +3784,161 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="16">
-        <v>8</v>
-      </c>
-      <c r="B135" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="4">
         <v>20</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F135" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F135" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A136" s="16">
+        <v>13</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="4">
+        <v>32</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="21"/>
-      <c r="B137" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="14"/>
-    </row>
-    <row r="138" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="15" t="s">
+      <c r="A137" s="16">
+        <v>14</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="16">
+        <v>15</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="19">
+        <v>20</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F138" s="37"/>
+    </row>
+    <row r="139" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A140" s="21"/>
+      <c r="B140" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="27"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="14"/>
+    </row>
+    <row r="141" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A141" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C141" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D141" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E141" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F141" s="28" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A139" s="16">
-        <v>1</v>
-      </c>
-      <c r="B139" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D139" s="4">
-        <v>20</v>
-      </c>
-      <c r="E139" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A140" s="16">
-        <v>2</v>
-      </c>
-      <c r="B140" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D140" s="4">
-        <v>20</v>
-      </c>
-      <c r="E140" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F140" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A141" s="16">
-        <v>3</v>
-      </c>
-      <c r="B141" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D141" s="4">
-        <v>32</v>
-      </c>
-      <c r="E141" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="F141" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="16">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="C142" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D142" s="4">
-        <v>32</v>
-      </c>
-      <c r="E142" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="F142" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="16">
-        <v>5</v>
-      </c>
-      <c r="B143" s="38" t="s">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D143" s="4">
-        <v>255</v>
-      </c>
-      <c r="E143" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F143" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="16">
-        <v>6</v>
-      </c>
-      <c r="B144" s="38" t="s">
-        <v>164</v>
+        <v>3</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>36</v>
@@ -3858,179 +3946,187 @@
       <c r="D144" s="4">
         <v>32</v>
       </c>
-      <c r="E144" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F144" s="39"/>
+      <c r="E144" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="16"/>
-      <c r="B145" s="38" t="s">
-        <v>193</v>
+      <c r="A145" s="16">
+        <v>4</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" s="4">
-        <v>32</v>
-      </c>
-      <c r="E145" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F145" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16">
-        <v>7</v>
-      </c>
-      <c r="B146" s="38" t="s">
-        <v>166</v>
+        <v>5</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D146" s="4">
-        <v>255</v>
-      </c>
-      <c r="E146" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="F146" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="147" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="16">
-        <v>8</v>
-      </c>
-      <c r="B147" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D147" s="4">
-        <v>32</v>
-      </c>
-      <c r="E147" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F147" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="33"/>
     </row>
     <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="16">
-        <v>9</v>
-      </c>
-      <c r="B148" s="38" t="s">
-        <v>160</v>
+        <v>7</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D148" s="4">
-        <v>32</v>
-      </c>
-      <c r="E148" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F148" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="16">
-        <v>10</v>
-      </c>
-      <c r="B149" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A150" s="16">
-        <v>11</v>
-      </c>
-      <c r="B150" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D149" s="19">
         <v>20</v>
       </c>
-      <c r="E150" s="38" t="s">
+      <c r="E149" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F150" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="40"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="35"/>
-      <c r="F151" s="37"/>
-    </row>
-    <row r="152" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F149" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A151" s="21"/>
+      <c r="B151" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="27"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="14"/>
+    </row>
+    <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A152" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A153" s="21"/>
-      <c r="B153" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="14"/>
+      <c r="A153" s="16">
+        <v>1</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" s="4">
+        <v>20</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A154" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="10" t="s">
+      <c r="A154" s="16">
         <v>2</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F154" s="28" t="s">
-        <v>61</v>
+      <c r="B154" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="4">
+        <v>20</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="38">
-        <v>20</v>
+        <v>154</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="4">
+        <v>32</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="F155" s="39" t="s">
         <v>62</v>
@@ -4038,19 +4134,19 @@
     </row>
     <row r="156" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C156" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D156" s="38">
-        <v>255</v>
+        <v>156</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D156" s="4">
+        <v>32</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F156" s="39" t="s">
         <v>62</v>
@@ -4058,99 +4154,89 @@
     </row>
     <row r="157" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D157" s="38">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" s="4">
+        <v>255</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="F157" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F157" s="39"/>
     </row>
     <row r="158" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C158" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="38">
-        <v>50</v>
+        <v>164</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="4">
+        <v>32</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F158" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F158" s="39"/>
     </row>
     <row r="159" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A159" s="16">
-        <v>5</v>
-      </c>
+      <c r="A159" s="16"/>
       <c r="B159" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C159" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="38">
-        <v>255</v>
+        <v>193</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="4">
+        <v>32</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F159" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F159" s="39"/>
     </row>
     <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B160" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C160" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D160" s="38">
+        <v>166</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="4">
         <v>255</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F160" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F160" s="39"/>
     </row>
     <row r="161" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A161" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B161" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" s="38">
-        <v>255</v>
+        <v>161</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="4">
+        <v>32</v>
       </c>
       <c r="E161" s="38" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F161" s="39" t="s">
         <v>62</v>
@@ -4158,31 +4244,270 @@
     </row>
     <row r="162" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A162" s="16">
+        <v>9</v>
+      </c>
+      <c r="B162" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D162" s="4">
+        <v>32</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F162" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A163" s="16">
+        <v>10</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A164" s="16">
+        <v>11</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="4">
+        <v>20</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F164" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="40"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="37"/>
+    </row>
+    <row r="166" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="167" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A167" s="21"/>
+      <c r="B167" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D167" s="27"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A168" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A169" s="16">
+        <v>1</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="38">
+        <v>20</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A170" s="16">
+        <v>2</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D170" s="38">
+        <v>255</v>
+      </c>
+      <c r="E170" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A171" s="16">
+        <v>3</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" s="38">
+        <v>0</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F171" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A172" s="16">
+        <v>4</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="38">
+        <v>50</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F172" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A173" s="16">
+        <v>5</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D173" s="38">
+        <v>255</v>
+      </c>
+      <c r="E173" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F173" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A174" s="16">
+        <v>6</v>
+      </c>
+      <c r="B174" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="38">
+        <v>255</v>
+      </c>
+      <c r="E174" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F174" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A175" s="16">
+        <v>7</v>
+      </c>
+      <c r="B175" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" s="38">
+        <v>255</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F175" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A176" s="16">
         <v>8</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B176" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C162" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D162" s="38">
-        <v>32</v>
-      </c>
-      <c r="E162" s="38" t="s">
+      <c r="C176" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" s="38">
+        <v>32</v>
+      </c>
+      <c r="E176" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F162" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="34"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="35"/>
-      <c r="F163" s="37"/>
+      <c r="F176" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="34"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="35"/>
+      <c r="F177" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
